--- a/Book1 copy.xlsx
+++ b/Book1 copy.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSR-PC\Downloads\excel_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD53BD57-9700-46E2-A70B-DD9482BAE88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878421B7-FC44-4557-9410-471164D8CF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{607A76BF-2CDF-4C8B-A443-4164D4A798BE}"/>
   </bookViews>
@@ -36,12 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">اسم الناخب </t>
   </si>
   <si>
-    <t>عدد البطايق</t>
+    <t>المركز الانتخابي</t>
+  </si>
+  <si>
+    <t>سجاد سلام</t>
+  </si>
+  <si>
+    <t>براثا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلام طعمه </t>
+  </si>
+  <si>
+    <t>الحيدري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد طمة </t>
+  </si>
+  <si>
+    <t>علي طعمه</t>
+  </si>
+  <si>
+    <t>كمال الدين</t>
   </si>
 </sst>
 </file>
@@ -91,7 +112,80 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -102,6 +196,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{721A184E-F348-4263-85F7-DA55A5409A8F}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B5" xr:uid="{721A184E-F348-4263-85F7-DA55A5409A8F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{826C16A0-3C13-4226-8C42-D790F519D217}" name="اسم الناخب " dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8FF521E8-C88C-4DB7-BD49-769ACEE59D43}" name="المركز الانتخابي" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,16 +526,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF25D60B-1316-43F4-A0C2-0EE1FF775C95}">
-  <dimension ref="A1:B1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -442,8 +548,43 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>